--- a/eBook/=Reference/Alpha4_Service.xlsx
+++ b/eBook/=Reference/Alpha4_Service.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hua\Bible=\eBook\=Reference\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27585" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服事+统计" sheetId="1" r:id="rId1"/>
@@ -18,758 +23,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
-  <si>
-    <t>服事</t>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/01/05</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/01/12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/01/19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/01/26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/02/16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/02/23</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="222">
   <si>
     <t>Weekend
 03/02-03</t>
   </si>
   <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/03/09</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/03/16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2019/03/23</t>
-    </r>
-  </si>
-  <si>
     <t>Celebration Party 03/30</t>
   </si>
   <si>
-    <t>预订主餐</t>
-  </si>
-  <si>
     <t>张晶</t>
   </si>
   <si>
-    <t>预备水果</t>
-  </si>
-  <si>
-    <t>预备饮料</t>
-  </si>
-  <si>
-    <r>
-      <t>音控</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>播放</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>敬拜</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;PPT</t>
-    </r>
-  </si>
-  <si>
-    <t>背景音乐</t>
-  </si>
-  <si>
-    <t>钥匙开门</t>
-  </si>
-  <si>
-    <t>会前布置</t>
-  </si>
-  <si>
-    <t>会前祷告</t>
-  </si>
-  <si>
-    <t>各组同工</t>
-  </si>
-  <si>
-    <t>会前接待</t>
-  </si>
-  <si>
-    <t>春雨+诗慧</t>
-  </si>
-  <si>
-    <t>会前陪伴</t>
-  </si>
-  <si>
-    <t>各组长</t>
-  </si>
-  <si>
-    <t>开场主持</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>1组组长</t>
-  </si>
-  <si>
     <t>付华</t>
-  </si>
-  <si>
-    <t>1组助手</t>
-  </si>
-  <si>
-    <t>2组组长</t>
-  </si>
-  <si>
-    <t>春雨</t>
-  </si>
-  <si>
-    <t>2组助手</t>
-  </si>
-  <si>
-    <t>不祷告者</t>
-  </si>
-  <si>
-    <t>会中默祷</t>
-  </si>
-  <si>
-    <t>各组助手</t>
-  </si>
-  <si>
-    <t>活跃氛围</t>
-  </si>
-  <si>
-    <t>会后清理</t>
-  </si>
-  <si>
-    <t>全体同工</t>
-  </si>
-  <si>
-    <t>备注：</t>
-  </si>
-  <si>
-    <r>
-      <t>时间安排：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>布置会场；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会前祷告；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17:10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始接待；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>准时开餐；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前敬拜；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18:05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前看片；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前开始讨论；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前结束。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>讨论环节：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鼓励每位来宾发言</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>少说多听（目光</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微笑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点头等）；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>照看来宾的需要；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>允许来宾静默思考；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心中为来宾默祷。</t>
-    </r>
   </si>
   <si>
     <t>来宾</t>
@@ -1062,7 +331,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>你是如何听说</t>
     </r>
@@ -1072,7 +341,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1096,7 +365,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Facebook/Twitter/</t>
     </r>
@@ -1116,7 +385,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>户外广告</t>
     </r>
@@ -1125,7 +394,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1145,7 +414,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>教会</t>
     </r>
@@ -1154,7 +423,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1177,7 +446,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>其它：</t>
     </r>
@@ -1186,7 +455,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_______________</t>
     </r>
@@ -1198,7 +467,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>你为何决定去</t>
     </r>
@@ -1208,7 +477,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1244,7 +513,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>其他：</t>
     </r>
@@ -1253,7 +522,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>______________</t>
     </r>
@@ -1265,7 +534,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>在参加</t>
     </r>
@@ -1275,7 +544,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1303,7 +572,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>在你参加</t>
     </r>
@@ -1313,7 +582,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1349,7 +618,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>其他：</t>
     </r>
@@ -1358,7 +627,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>____________</t>
     </r>
@@ -1373,7 +642,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>如果问题</t>
     </r>
@@ -1383,7 +652,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5-6</t>
     </r>
@@ -1404,7 +673,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1427,7 +696,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>其他：</t>
     </r>
@@ -1436,7 +705,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>__________</t>
     </r>
@@ -1451,7 +720,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参加</t>
     </r>
@@ -1461,7 +730,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1500,7 +769,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>其他：</t>
     </r>
@@ -1509,7 +778,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>___________</t>
     </r>
@@ -1521,7 +790,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1541,7 +810,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1-5</t>
     </r>
@@ -1561,7 +830,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1582,7 +851,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1=</t>
     </r>
@@ -1602,7 +871,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5=</t>
     </r>
@@ -1624,7 +893,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>请给出您对我们这期</t>
     </r>
@@ -1634,7 +903,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Alpha</t>
     </r>
@@ -1648,19 +917,3301 @@
       </rPr>
       <t>小组的评价、建议或需要提高之处：</t>
     </r>
+  </si>
+  <si>
+    <t>孙合立</t>
+  </si>
+  <si>
+    <t>南婵婵</t>
+  </si>
+  <si>
+    <t>彭程</t>
+  </si>
+  <si>
+    <t>宋融</t>
+  </si>
+  <si>
+    <t>齐思婕</t>
+  </si>
+  <si>
+    <t>温子敬</t>
+  </si>
+  <si>
+    <t>周杨洋</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主餐：在网上提前订好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定时送到即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平衡性价比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">尽量让大家吃好和满意
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水果：可去教会的物美买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可鼓励熟悉且来得早的来宾一起参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为水果可能有点重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">所以有个弟兄拎比较好
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮料：也可以去物美买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>避免碳酸等不健康饮品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可考虑味全等有益来宾身体的
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>音控：主要是主持人话筒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敬拜歌曲和歌词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PPT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有的话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敬拜诗歌：建议选择旋律优美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朗朗上口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>歌词易于来宾理解和接受的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可自行改编歌词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发挥创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">鼓励来宾跟着唱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景音乐：建议轻松舒缓的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或赞美诗伴奏曲等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开门钥匙：保管教会钥匙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">每次准时来开门
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会前布置场地：根据分组数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有人负责总体安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">其它同工协助布置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会前祷告：布置结束后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同工们按组祷告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要为自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同工团队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来宾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次活动祷告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门口接待：欢迎来宾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有喜乐的表情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可主动握手欢迎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引导其进入分组
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陪伴来宾：在活动正式开始前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陪进组的来宾聊天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">介绍来宾们彼此认识等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主持人：引导活动的整个流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开场欢迎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破冰游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敬拜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">结束合影
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开场破冰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟左右破冰游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或主持人以笑话开场等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组组长：每次可轮换和认领</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考培训中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的角色
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组助手：每次可轮换和认领</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考培训中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>helper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的角色
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不祷告者：为避免我们祷告时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有不想祷告的来宾觉得尴尬和有压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我们会留位助手陪他们不闭眼睛不祷告
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心中默祷：主要是各组的助手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整个活动过程中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有机会时都可以为来宾和活动心中默祷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活跃氛围：主要事组长和助手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">使整个小组的讨论尽量活泼有趣
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会后清理：收拾会场和清理垃圾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同工们可以鼓励来宾一起参与
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组长和助手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祷告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这课之前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们不会公开的饭祷和结束祷告；若之后有新来宾加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祷告前也对其简明解释下。
+时间安排：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布置会场；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会前祷告；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17:10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始接待；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准时开餐；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前敬拜；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18:05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前看片；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前开始讨论；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前结束。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论环节：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼓励每位来宾发言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>少说多听（目光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微笑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点头等）；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>照看来宾的需要；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许来宾静默思考；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心中为来宾默祷。</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘美丽</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>王修竹</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑诗慧-&gt;吴昊朋友</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>顾晨光-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;已信主 周日教课 一直无法聚会</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>马永健-&gt;陈驰妻子 上过慕道班 尚未信主</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拉拉-&gt;拉拉同事 对基督信仰有兴趣</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>张潇元-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>王慧敏-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>王慧敏-&gt;</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>荆奇+顾晨光-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;希望医治梦梦魇</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯宪臣</t>
+  </si>
+  <si>
+    <t>侯宪臣</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>李贺秀</t>
+  </si>
+  <si>
+    <t>李贺秀</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄天悦-&gt;95年 黑龙江佳木斯人 基督家庭 小时候受洗 后参军 现在是健身教练~已十年没有聚会 但对基督信仰的印象很好</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄天悦-&gt;95年 河北邢台人 未信耶稣 最近总做噩梦</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组组长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组组长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服事</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预订主餐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预备水果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预备饮料</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付华</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景音乐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钥匙开门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会前布置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会前祷告</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会前陪伴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主持人</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组助手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组助手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不祷告者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活跃氛围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各组同工</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会后清理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南婵婵</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘美丽</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋融</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>齐思婕</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王修竹</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周杨洋</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/01/05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/01/12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/01/19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/01/26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/02/16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/02/23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/03/09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/03/16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019/03/23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>音控</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敬拜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;PPT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢恩</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门口接待</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来宾</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张晶</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春雨</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭婷</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全体</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永健</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各组助手</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭婷</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会中默祷</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付华</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诗慧</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开场破冰</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永健</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各组同工</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各组组长</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张晶</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诗慧</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彭程</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙合立</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温子敬</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>王修竹-&gt;码农 王修竹男友 未信主 性格开朗真诚 乐于分享</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1670,32 +4221,32 @@
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1713,7 +4264,7 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1730,14 +4281,8 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1750,52 +4295,38 @@
       <sz val="11"/>
       <color indexed="11"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="39"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1809,7 +4340,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1830,33 +4361,75 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="58"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2127,44 +4700,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2173,110 +4740,95 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2383,168 +4935,190 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="42">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="21"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="35"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="37"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="9"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="7"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="38"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41"/>
+    <cellStyle name="标题" xfId="2"/>
+    <cellStyle name="标题 1" xfId="13"/>
+    <cellStyle name="标题 2" xfId="14"/>
+    <cellStyle name="标题 3" xfId="16"/>
+    <cellStyle name="标题 4" xfId="10"/>
+    <cellStyle name="差" xfId="6"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="好" xfId="25"/>
+    <cellStyle name="汇总" xfId="24"/>
+    <cellStyle name="计算" xfId="19"/>
+    <cellStyle name="检查单元格" xfId="20"/>
+    <cellStyle name="解释性文本" xfId="12"/>
+    <cellStyle name="警告文本" xfId="11"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="强调文字颜色 1" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="22"/>
+    <cellStyle name="强调文字颜色 3" xfId="33"/>
+    <cellStyle name="强调文字颜色 4" xfId="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="36"/>
+    <cellStyle name="强调文字颜色 6" xfId="39"/>
+    <cellStyle name="适中" xfId="26"/>
+    <cellStyle name="输出" xfId="18"/>
+    <cellStyle name="输入" xfId="3"/>
+    <cellStyle name="注释" xfId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2613,6 +5187,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2911,6 +5493,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2943,97 +5526,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:X45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="51" customWidth="1"/>
+    <col min="3" max="11" width="10.625" style="51" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="1" ht="35" customHeight="1" spans="1:12">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:12" ht="35.1" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="I1" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1" spans="1:12">
-      <c r="A2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-    </row>
-    <row r="3" ht="16" customHeight="1" spans="1:12">
-      <c r="A3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:12">
-      <c r="A4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="25"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A2" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A4" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>210</v>
+      </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -3045,29 +5634,31 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:12">
-      <c r="A5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:12">
-      <c r="A6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="25"/>
+    <row r="5" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A5" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A6" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -3079,27 +5670,31 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" ht="16" customHeight="1" spans="1:12">
-      <c r="A7" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:12">
-      <c r="A8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="25"/>
+    <row r="7" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A7" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>199</v>
+      </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -3111,30 +5706,30 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" ht="16" customHeight="1" spans="1:12">
-      <c r="A9" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="1:12">
-      <c r="A10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>22</v>
+    <row r="9" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A9" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A10" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -3147,30 +5742,30 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" ht="16" customHeight="1" spans="1:12">
-      <c r="A11" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:12">
-      <c r="A12" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>26</v>
+    <row r="11" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A11" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A12" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -3183,1208 +5778,768 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" ht="16" customHeight="1" spans="1:12">
-      <c r="A13" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:12">
-      <c r="A14" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:12">
-      <c r="A15" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:12">
-      <c r="A16" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:12">
-      <c r="A17" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:12">
-      <c r="A18" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:12">
-      <c r="A19" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:12">
-      <c r="A20" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:12">
-      <c r="A21" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-    </row>
-    <row r="22" ht="32" customHeight="1" spans="1:12">
-      <c r="A22" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" s="57" customFormat="1" ht="15.95" customHeight="1" spans="1:24">
-      <c r="A23" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="1:24">
-      <c r="A24" s="60"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-    </row>
-    <row r="25" ht="16" customHeight="1" spans="1:24">
-      <c r="A25" s="61"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-    </row>
-    <row r="26" ht="16" customHeight="1" spans="1:24">
-      <c r="A26" s="25"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-    </row>
-    <row r="27" ht="16" customHeight="1" spans="1:24">
-      <c r="A27" s="61"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-    </row>
-    <row r="28" ht="16" customHeight="1" spans="1:24">
-      <c r="A28" s="25"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-    </row>
-    <row r="29" ht="16" customHeight="1" spans="1:24">
-      <c r="A29" s="61"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-    </row>
-    <row r="30" ht="16" customHeight="1" spans="1:24">
-      <c r="A30" s="25"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-    </row>
-    <row r="31" ht="16" customHeight="1" spans="1:24">
-      <c r="A31" s="61"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-    </row>
-    <row r="32" ht="16" customHeight="1" spans="1:24">
-      <c r="A32" s="25"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-    </row>
-    <row r="33" ht="16" customHeight="1" spans="1:24">
-      <c r="A33" s="61"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-    </row>
-    <row r="34" ht="16" customHeight="1" spans="1:24">
-      <c r="A34" s="25"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-    </row>
-    <row r="35" ht="16" customHeight="1" spans="1:24">
-      <c r="A35" s="61"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-    </row>
-    <row r="36" ht="16" customHeight="1" spans="1:24">
-      <c r="A36" s="25"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-    </row>
-    <row r="37" ht="16" customHeight="1" spans="1:24">
-      <c r="A37" s="61"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-    </row>
-    <row r="38" ht="16" customHeight="1" spans="1:24">
-      <c r="A38" s="25"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-    </row>
-    <row r="39" ht="16" customHeight="1" spans="1:24">
-      <c r="A39" s="61"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-    </row>
-    <row r="40" ht="16" customHeight="1" spans="1:24">
-      <c r="A40" s="25"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-    </row>
-    <row r="41" ht="16" customHeight="1" spans="1:24">
-      <c r="A41" s="61"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-    </row>
-    <row r="42" ht="16" customHeight="1" spans="1:24">
-      <c r="A42" s="25"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-    </row>
-    <row r="43" ht="16" customHeight="1" spans="1:24">
-      <c r="A43" s="61"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-    </row>
-    <row r="44" ht="16" customHeight="1" spans="1:24">
-      <c r="A44" s="25"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-    </row>
-    <row r="45" ht="16" customHeight="1" spans="1:24">
-      <c r="A45" s="69"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
+    <row r="13" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A13" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A14" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A15" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A17" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A19" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A20" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A21" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A22" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="1:12" ht="320.10000000000002" customHeight="1">
+      <c r="A23" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+    </row>
+    <row r="24" spans="1:12" s="58" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A24" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A25" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A26" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A27" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A28" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A30" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A31" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A32" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A33" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A34" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A35" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A36" s="54"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.7" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="30" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="30" customWidth="1"/>
     <col min="4" max="4" width="65.25" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.7166666666667" customWidth="1"/>
-    <col min="6" max="6" width="30.275" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.95" customHeight="1">
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="59" t="s">
+        <v>139</v>
+      </c>
       <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" ht="16" customHeight="1" spans="1:6">
-      <c r="A3" s="38">
+      <c r="D2" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="60" t="s">
+        <v>146</v>
+      </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="39"/>
+      <c r="D3" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:6">
-      <c r="A4" s="40">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="61" t="s">
+        <v>147</v>
+      </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:6">
-      <c r="A5" s="38">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="60" t="s">
+        <v>140</v>
+      </c>
       <c r="C5" s="26"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="67" t="s">
+        <v>221</v>
+      </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" ht="16" customHeight="1" spans="1:6">
-      <c r="A6" s="40">
+    <row r="6" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="61" t="s">
+        <v>141</v>
+      </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="69" t="s">
+        <v>151</v>
+      </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" ht="16" customHeight="1" spans="1:6">
-      <c r="A7" s="42">
+    <row r="7" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:6">
-      <c r="A8" s="42">
+      <c r="B7" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:6">
-      <c r="A9" s="38">
+      <c r="B8" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="39"/>
+      <c r="D9" s="67" t="s">
+        <v>154</v>
+      </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" ht="16" customHeight="1" spans="1:6">
-      <c r="A10" s="40">
+    <row r="10" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="61" t="s">
+        <v>143</v>
+      </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="69" t="s">
+        <v>155</v>
+      </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:6">
-      <c r="A11" s="42">
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:6">
-      <c r="A12" s="42">
+      <c r="B11" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:6">
-      <c r="A13" s="38">
+      <c r="B12" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.95" customHeight="1"/>
+    <row r="14" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A15" s="44">
+        <v>10</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A16" s="46">
+        <v>11</v>
+      </c>
+      <c r="B16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:6">
-      <c r="A14" s="40">
+      <c r="C16" s="48"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A17" s="49">
+        <v>12</v>
+      </c>
+      <c r="B17" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:6">
-      <c r="A15" s="38">
+      <c r="C17" s="50"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A18" s="46">
+        <v>13</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="48"/>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:6">
-      <c r="A16" s="40">
+      <c r="C18" s="48"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A19" s="49">
+        <v>14</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:6">
-      <c r="A17" s="38">
+      <c r="C19" s="50"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A20" s="46">
+        <v>15</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:6">
-      <c r="A18" s="40">
+      <c r="C20" s="48"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A21" s="49">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:6">
-      <c r="A19" s="42">
+      <c r="C21" s="50"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A22" s="46">
+        <v>17</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A23" s="49">
         <v>18</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:6">
-      <c r="A20" s="40">
+      <c r="B23" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:5" ht="56.1" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:6">
-      <c r="A21" s="42">
+      <c r="C24" s="48"/>
+      <c r="D24" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" ht="16" customHeight="1" spans="1:6">
-      <c r="A22" s="42">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" ht="16" customHeight="1" spans="1:6">
-      <c r="A23" s="38">
-        <v>22</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" ht="16" customHeight="1"/>
-    <row r="25" ht="16" customHeight="1" spans="1:5">
-      <c r="A25" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" ht="16" customHeight="1" spans="1:5">
-      <c r="A26" s="49">
-        <v>22</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" ht="16" customHeight="1" spans="1:5">
-      <c r="A27" s="51">
-        <v>23</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A28" s="54">
-        <v>24</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A29" s="51">
-        <v>25</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A30" s="54">
-        <v>26</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A31" s="51">
-        <v>27</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A32" s="54">
-        <v>28</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A33" s="51">
-        <v>29</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" ht="16" customHeight="1" spans="1:5">
-      <c r="A34" s="54">
-        <v>30</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" ht="56.1" customHeight="1" spans="1:5">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="22"/>
+      <c r="E24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="42.6416666666667" style="29" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="29" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4392,7 +6547,7 @@
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="20" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4400,109 +6555,109 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" ht="30" spans="1:3">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="11">
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
@@ -4512,32 +6667,32 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
@@ -4547,268 +6702,268 @@
         <v>4</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" ht="30" spans="1:3">
+    <row r="28" spans="1:3" ht="30">
       <c r="A28" s="11">
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="14.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="14.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="14.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" ht="30" spans="1:3">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" s="11">
         <v>6</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="14.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="14.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="14.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="14.25">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="14.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="14.25">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="14.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" ht="30" spans="1:3">
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="11">
         <v>7</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="14.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="14.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="14.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" ht="30" spans="1:3">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="9"/>
       <c r="B48" s="12" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C48" s="25"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="14.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="14.25">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" ht="30" spans="1:3">
+    <row r="51" spans="1:3" ht="30">
       <c r="A51" s="13">
         <v>8</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="14.25">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="14.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="14.25">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="14.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="14.25">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="14.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="14.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="14.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" ht="45" spans="1:3">
+    <row r="60" spans="1:3" ht="45">
       <c r="A60" s="11">
         <v>9</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="14.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="7"/>
@@ -4818,55 +6973,54 @@
         <v>10</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" s="15" customFormat="1" ht="247" customHeight="1" spans="1:3">
+    <row r="63" spans="1:3" s="15" customFormat="1" ht="246.95" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="28"/>
       <c r="C63" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="38.1916666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" s="15" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="15" customFormat="1">
       <c r="A3" s="21"/>
       <c r="B3" s="8"/>
       <c r="C3" s="22"/>
@@ -4876,68 +7030,68 @@
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" ht="30" spans="1:3">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7"/>
     </row>
@@ -4946,12 +7100,12 @@
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" ht="30" spans="1:3">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="13">
         <v>3</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7"/>
     </row>
@@ -4960,33 +7114,33 @@
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" ht="30" spans="1:3">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="13">
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -4995,16 +7149,16 @@
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" ht="15" spans="1:3">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="11">
         <v>5</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" s="15" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="15" customFormat="1">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5014,68 +7168,68 @@
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" ht="30" spans="1:3">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" s="13">
         <v>6</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7"/>
     </row>
@@ -5084,16 +7238,16 @@
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" ht="30" spans="1:3">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" s="13">
         <v>7</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" s="15" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3" s="15" customFormat="1">
       <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5103,68 +7257,68 @@
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" ht="45" spans="1:3">
+    <row r="38" spans="1:3" ht="45">
       <c r="A38" s="11">
         <v>8</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C46" s="9"/>
     </row>
@@ -5173,12 +7327,12 @@
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" ht="30" spans="1:3">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="11">
         <v>9</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C48" s="9"/>
     </row>
@@ -5187,12 +7341,12 @@
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" ht="30" spans="1:3">
+    <row r="50" spans="1:3" ht="30">
       <c r="A50" s="11">
         <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C50" s="9"/>
     </row>
@@ -5217,10 +7371,10 @@
       </c>
       <c r="C53" s="22"/>
     </row>
-    <row r="54" ht="45" spans="1:3">
+    <row r="54" spans="1:3" ht="45">
       <c r="A54" s="10"/>
       <c r="B54" s="12" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C54" s="25"/>
     </row>
@@ -5238,32 +7392,31 @@
       </c>
       <c r="C56" s="27"/>
     </row>
-    <row r="57" s="15" customFormat="1" ht="15" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="21"/>
       <c r="B57" s="28"/>
       <c r="C57" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="55.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5271,54 +7424,54 @@
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="15" spans="1:3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -5327,54 +7480,54 @@
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" ht="15" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="11">
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C16" s="9"/>
     </row>
@@ -5383,33 +7536,33 @@
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" ht="15" spans="1:3">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -5418,33 +7571,33 @@
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" ht="15" spans="1:3">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="13">
         <v>4</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C26" s="9"/>
     </row>
@@ -5453,54 +7606,54 @@
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" ht="15" spans="1:3">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="11">
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" ht="15" spans="1:3">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" s="13"/>
       <c r="B29" s="8" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C34" s="9"/>
     </row>
@@ -5509,54 +7662,54 @@
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" ht="15" spans="1:3">
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="11">
         <v>6</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9"/>
     </row>
@@ -5565,40 +7718,40 @@
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" ht="15" spans="1:3">
+    <row r="44" spans="1:3" ht="15">
       <c r="A44" s="11">
         <v>7</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" ht="15" spans="1:3">
+    <row r="48" spans="1:3" ht="15">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -5612,61 +7765,61 @@
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" ht="15" spans="1:3">
+    <row r="51" spans="1:3" ht="15">
       <c r="A51" s="13">
         <v>8</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="C58" s="9"/>
     </row>
@@ -5675,12 +7828,12 @@
       <c r="B59" s="8"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" ht="30" spans="1:3">
+    <row r="60" spans="1:3" ht="30">
       <c r="A60" s="11">
         <v>9</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C60" s="11"/>
     </row>
@@ -5694,12 +7847,12 @@
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" ht="15" spans="1:3">
+    <row r="63" spans="1:3" ht="15">
       <c r="A63" s="13">
         <v>10</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C63" s="13"/>
     </row>
@@ -5714,8 +7867,8 @@
       <c r="C65" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>